--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1001,7 +1001,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
 </t>
   </si>
   <si>
@@ -40947,7 +40947,7 @@
         <v>48</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L340" t="s" s="2">
         <v>146</v>
@@ -44573,7 +44573,7 @@
         <v>48</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L372" t="s" s="2">
         <v>146</v>
@@ -48197,7 +48197,7 @@
         <v>48</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L404" t="s" s="2">
         <v>146</v>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1001,7 +1001,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
 </t>
   </si>
   <si>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,7 +426,7 @@
 </t>
   </si>
   <si>
-    <t>Cuando el Bundle fue hecho</t>
+    <t>Cuando el Bundle fue armado</t>
   </si>
   <si>
     <t>The date/time that the bundle was assembled - i.e. when the resources were placed in the bundle.</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$369</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12050" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13191" uniqueCount="669">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1815,6 +1815,132 @@
     <t>Bundle.entry:questionnaireResponse.response.outcome</t>
   </si>
   <si>
+    <t>Bundle.entry:AllergyIntolerance</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance</t>
+  </si>
+  <si>
+    <t>Entrada en el Bundle: contendrá un recurso AllergyIntolerance</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.resource</t>
+  </si>
+  <si>
+    <t>Allergy
+IntoleranceAdverse Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllergyIntolerance {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/AllergyIntoleranceIniciarLE}
+</t>
+  </si>
+  <si>
+    <t>Recurso para indicar si el paciente posee alguna alergia</t>
+  </si>
+  <si>
+    <t>Risk of harmful or undesirable, physiological response which is unique to an individual and associated with exposure to a substance.</t>
+  </si>
+  <si>
+    <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
+  </si>
+  <si>
+    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
+ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:AllergyIntolerance.response.outcome</t>
+  </si>
+  <si>
     <t>Bundle.entry:observation</t>
   </si>
   <si>
@@ -1864,9 +1990,6 @@
   </si>
   <si>
     <t>OBX</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
     <t>Bundle.entry:observation.search</t>
@@ -2280,7 +2403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN337"/>
+  <dimension ref="A1:AN369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -37552,10 +37675,10 @@
         <v>595</v>
       </c>
       <c r="AK311" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL311" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AL311" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>77</v>
@@ -37566,7 +37689,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>196</v>
@@ -37678,7 +37801,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>200</v>
@@ -37790,7 +37913,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>201</v>
@@ -37904,7 +38027,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>202</v>
@@ -38020,7 +38143,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>203</v>
@@ -38134,7 +38257,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>209</v>
@@ -38248,7 +38371,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>214</v>
@@ -38360,7 +38483,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>218</v>
@@ -38472,7 +38595,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>219</v>
@@ -38586,7 +38709,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>220</v>
@@ -38702,7 +38825,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>221</v>
@@ -38814,7 +38937,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>226</v>
@@ -38928,7 +39051,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>230</v>
@@ -39040,7 +39163,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>233</v>
@@ -39152,7 +39275,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>235</v>
@@ -39264,7 +39387,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>238</v>
@@ -39376,7 +39499,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>241</v>
@@ -39488,7 +39611,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>245</v>
@@ -39600,7 +39723,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>246</v>
@@ -39714,7 +39837,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>247</v>
@@ -39830,7 +39953,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>248</v>
@@ -39942,7 +40065,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>251</v>
@@ -40054,7 +40177,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>254</v>
@@ -40168,7 +40291,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>258</v>
@@ -40282,7 +40405,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>262</v>
@@ -40396,12 +40519,14 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B337" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C337" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="B337" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
         <v>77</v>
       </c>
@@ -40410,7 +40535,7 @@
         <v>78</v>
       </c>
       <c r="G337" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H337" t="s" s="2">
         <v>77</v>
@@ -40422,20 +40547,16 @@
         <v>88</v>
       </c>
       <c r="K337" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L337" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="L337" t="s" s="2">
-        <v>625</v>
-      </c>
       <c r="M337" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O337" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N337" s="2"/>
+      <c r="O337" s="2"/>
       <c r="P337" t="s" s="2">
         <v>77</v>
       </c>
@@ -40483,35 +40604,3663 @@
         <v>77</v>
       </c>
       <c r="AF337" t="s" s="2">
-        <v>623</v>
+        <v>175</v>
       </c>
       <c r="AG337" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH337" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI337" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ337" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK337" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL337" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM337" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN337" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="338" hidden="true">
+      <c r="A338" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C338" s="2"/>
+      <c r="D338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E338" s="2"/>
+      <c r="F338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G338" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K338" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L338" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M338" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N338" s="2"/>
+      <c r="O338" s="2"/>
+      <c r="P338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q338" s="2"/>
+      <c r="R338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF338" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH338" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL338" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN338" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="339" hidden="true">
+      <c r="A339" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B339" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C339" s="2"/>
+      <c r="D339" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E339" s="2"/>
+      <c r="F339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G339" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K339" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L339" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M339" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N339" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O339" s="2"/>
+      <c r="P339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q339" s="2"/>
+      <c r="R339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF339" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH339" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ339" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL339" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN339" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="340" hidden="true">
+      <c r="A340" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B340" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C340" s="2"/>
+      <c r="D340" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E340" s="2"/>
+      <c r="F340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G340" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I340" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J340" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K340" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L340" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M340" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N340" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O340" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q340" s="2"/>
+      <c r="R340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF340" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH340" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ340" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL340" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN340" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="341" hidden="true">
+      <c r="A341" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B341" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C341" s="2"/>
+      <c r="D341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E341" s="2"/>
+      <c r="F341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J341" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K341" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L341" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M341" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N341" s="2"/>
+      <c r="O341" s="2"/>
+      <c r="P341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q341" s="2"/>
+      <c r="R341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF341" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ341" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK337" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL337" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM337" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN337" t="s" s="2">
+      <c r="AK341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN341" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="342" hidden="true">
+      <c r="A342" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B342" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C342" s="2"/>
+      <c r="D342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E342" s="2"/>
+      <c r="F342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G342" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J342" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K342" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L342" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M342" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N342" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O342" s="2"/>
+      <c r="P342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q342" s="2"/>
+      <c r="R342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF342" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH342" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ342" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN342" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="343" hidden="true">
+      <c r="A343" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C343" s="2"/>
+      <c r="D343" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="E343" s="2"/>
+      <c r="F343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G343" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K343" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L343" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M343" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N343" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O343" s="2"/>
+      <c r="P343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q343" s="2"/>
+      <c r="R343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF343" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH343" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ343" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AK343" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AL343" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AM343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN343" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="344" hidden="true">
+      <c r="A344" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B344" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C344" s="2"/>
+      <c r="D344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E344" s="2"/>
+      <c r="F344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G344" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J344" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K344" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L344" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M344" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N344" s="2"/>
+      <c r="O344" s="2"/>
+      <c r="P344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q344" s="2"/>
+      <c r="R344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF344" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH344" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI344" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ344" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN344" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="345" hidden="true">
+      <c r="A345" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C345" s="2"/>
+      <c r="D345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E345" s="2"/>
+      <c r="F345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G345" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K345" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L345" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M345" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N345" s="2"/>
+      <c r="O345" s="2"/>
+      <c r="P345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q345" s="2"/>
+      <c r="R345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF345" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH345" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL345" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN345" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="346" hidden="true">
+      <c r="A346" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C346" s="2"/>
+      <c r="D346" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E346" s="2"/>
+      <c r="F346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K346" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L346" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N346" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O346" s="2"/>
+      <c r="P346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q346" s="2"/>
+      <c r="R346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ346" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL346" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN346" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="347" hidden="true">
+      <c r="A347" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B347" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C347" s="2"/>
+      <c r="D347" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E347" s="2"/>
+      <c r="F347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I347" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J347" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L347" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N347" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O347" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q347" s="2"/>
+      <c r="R347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF347" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ347" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL347" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN347" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="348" hidden="true">
+      <c r="A348" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C348" s="2"/>
+      <c r="D348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E348" s="2"/>
+      <c r="F348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G348" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J348" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L348" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O348" s="2"/>
+      <c r="P348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q348" s="2"/>
+      <c r="R348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X348" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y348" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z348" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF348" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH348" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ348" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN348" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="349" hidden="true">
+      <c r="A349" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C349" s="2"/>
+      <c r="D349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E349" s="2"/>
+      <c r="F349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G349" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J349" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N349" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O349" s="2"/>
+      <c r="P349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q349" s="2"/>
+      <c r="R349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF349" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH349" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ349" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN349" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="350" hidden="true">
+      <c r="A350" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C350" s="2"/>
+      <c r="D350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E350" s="2"/>
+      <c r="F350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G350" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N350" s="2"/>
+      <c r="O350" s="2"/>
+      <c r="P350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q350" s="2"/>
+      <c r="R350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF350" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH350" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI350" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AJ350" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN350" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="351" hidden="true">
+      <c r="A351" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C351" s="2"/>
+      <c r="D351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E351" s="2"/>
+      <c r="F351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G351" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K351" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N351" s="2"/>
+      <c r="O351" s="2"/>
+      <c r="P351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q351" s="2"/>
+      <c r="R351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF351" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH351" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL351" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN351" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="352" hidden="true">
+      <c r="A352" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C352" s="2"/>
+      <c r="D352" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E352" s="2"/>
+      <c r="F352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K352" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L352" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M352" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N352" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O352" s="2"/>
+      <c r="P352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q352" s="2"/>
+      <c r="R352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF352" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ352" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL352" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN352" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="353" hidden="true">
+      <c r="A353" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B353" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C353" s="2"/>
+      <c r="D353" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E353" s="2"/>
+      <c r="F353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I353" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J353" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K353" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L353" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N353" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O353" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q353" s="2"/>
+      <c r="R353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF353" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ353" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL353" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN353" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="354" hidden="true">
+      <c r="A354" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C354" s="2"/>
+      <c r="D354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E354" s="2"/>
+      <c r="F354" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G354" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J354" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L354" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N354" s="2"/>
+      <c r="O354" s="2"/>
+      <c r="P354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q354" s="2"/>
+      <c r="R354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y354" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z354" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF354" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG354" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH354" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ354" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN354" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="355" hidden="true">
+      <c r="A355" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B355" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C355" s="2"/>
+      <c r="D355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E355" s="2"/>
+      <c r="F355" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G355" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J355" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K355" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L355" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M355" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O355" s="2"/>
+      <c r="P355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q355" s="2"/>
+      <c r="R355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF355" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG355" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH355" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ355" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN355" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="356" hidden="true">
+      <c r="A356" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B356" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C356" s="2"/>
+      <c r="D356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E356" s="2"/>
+      <c r="F356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G356" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J356" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K356" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L356" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N356" s="2"/>
+      <c r="O356" s="2"/>
+      <c r="P356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q356" s="2"/>
+      <c r="R356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF356" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH356" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ356" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN356" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="357" hidden="true">
+      <c r="A357" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B357" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C357" s="2"/>
+      <c r="D357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E357" s="2"/>
+      <c r="F357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G357" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J357" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K357" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N357" s="2"/>
+      <c r="O357" s="2"/>
+      <c r="P357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q357" s="2"/>
+      <c r="R357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF357" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH357" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ357" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN357" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="358" hidden="true">
+      <c r="A358" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B358" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C358" s="2"/>
+      <c r="D358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E358" s="2"/>
+      <c r="F358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G358" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J358" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K358" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L358" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N358" s="2"/>
+      <c r="O358" s="2"/>
+      <c r="P358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q358" s="2"/>
+      <c r="R358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF358" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH358" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ358" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN358" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="359" hidden="true">
+      <c r="A359" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B359" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C359" s="2"/>
+      <c r="D359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E359" s="2"/>
+      <c r="F359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G359" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J359" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K359" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M359" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N359" s="2"/>
+      <c r="O359" s="2"/>
+      <c r="P359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q359" s="2"/>
+      <c r="R359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF359" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH359" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ359" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN359" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="360" hidden="true">
+      <c r="A360" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C360" s="2"/>
+      <c r="D360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E360" s="2"/>
+      <c r="F360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G360" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J360" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K360" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L360" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M360" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N360" s="2"/>
+      <c r="O360" s="2"/>
+      <c r="P360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q360" s="2"/>
+      <c r="R360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF360" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH360" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI360" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ360" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN360" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="361" hidden="true">
+      <c r="A361" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B361" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C361" s="2"/>
+      <c r="D361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E361" s="2"/>
+      <c r="F361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G361" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K361" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L361" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M361" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N361" s="2"/>
+      <c r="O361" s="2"/>
+      <c r="P361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q361" s="2"/>
+      <c r="R361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF361" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH361" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL361" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN361" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="362" hidden="true">
+      <c r="A362" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C362" s="2"/>
+      <c r="D362" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E362" s="2"/>
+      <c r="F362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K362" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N362" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O362" s="2"/>
+      <c r="P362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q362" s="2"/>
+      <c r="R362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF362" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ362" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL362" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN362" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="363" hidden="true">
+      <c r="A363" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C363" s="2"/>
+      <c r="D363" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E363" s="2"/>
+      <c r="F363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I363" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J363" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O363" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q363" s="2"/>
+      <c r="R363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF363" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ363" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL363" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN363" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="364" hidden="true">
+      <c r="A364" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C364" s="2"/>
+      <c r="D364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E364" s="2"/>
+      <c r="F364" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G364" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J364" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M364" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N364" s="2"/>
+      <c r="O364" s="2"/>
+      <c r="P364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q364" s="2"/>
+      <c r="R364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF364" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG364" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH364" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ364" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN364" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="365" hidden="true">
+      <c r="A365" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C365" s="2"/>
+      <c r="D365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E365" s="2"/>
+      <c r="F365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G365" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J365" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K365" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L365" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N365" s="2"/>
+      <c r="O365" s="2"/>
+      <c r="P365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q365" s="2"/>
+      <c r="R365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF365" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH365" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ365" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN365" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="366" hidden="true">
+      <c r="A366" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C366" s="2"/>
+      <c r="D366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E366" s="2"/>
+      <c r="F366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G366" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J366" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N366" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O366" s="2"/>
+      <c r="P366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q366" s="2"/>
+      <c r="R366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF366" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH366" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ366" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN366" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="367" hidden="true">
+      <c r="A367" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C367" s="2"/>
+      <c r="D367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E367" s="2"/>
+      <c r="F367" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G367" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J367" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O367" s="2"/>
+      <c r="P367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q367" s="2"/>
+      <c r="R367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF367" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG367" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH367" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ367" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN367" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="368" hidden="true">
+      <c r="A368" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C368" s="2"/>
+      <c r="D368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E368" s="2"/>
+      <c r="F368" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G368" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J368" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O368" s="2"/>
+      <c r="P368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q368" s="2"/>
+      <c r="R368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF368" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG368" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH368" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN368" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="369" hidden="true">
+      <c r="A369" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="C369" s="2"/>
+      <c r="D369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E369" s="2"/>
+      <c r="F369" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G369" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J369" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N369" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="O369" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="P369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q369" s="2"/>
+      <c r="R369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF369" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AG369" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH369" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ369" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN369" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN337">
+  <autoFilter ref="A1:AN369">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -40521,7 +44270,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI336">
+  <conditionalFormatting sqref="A2:AI368">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1130,7 +1130,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE}
 </t>
   </si>
   <si>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$369</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$433</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13191" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15471" uniqueCount="741">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1941,38 +1941,38 @@
     <t>Bundle.entry:AllergyIntolerance.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:observation</t>
-  </si>
-  <si>
-    <t>observation</t>
+    <t>Bundle.entry:ObservationResultadoExamen</t>
+  </si>
+  <si>
+    <t>ObservationResultadoExamen</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso Observation</t>
   </si>
   <si>
-    <t>Bundle.entry:observation.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.resource</t>
+    <t>Bundle.entry:ObservationResultadoExamen.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.resource</t>
   </si>
   <si>
     <t>Vital Signs
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationAtenderLE}
+    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationResultadoExamen}
 </t>
   </si>
   <si>
@@ -1992,79 +1992,297 @@
     <t>OBX</t>
   </si>
   <si>
-    <t>Bundle.entry:observation.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observation.response.outcome</t>
+    <t>Bundle.entry:ObservationResultadoExamen.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:ObservationResultadoExamen.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento</t>
+  </si>
+  <si>
+    <t>SolicitudMedicamento</t>
+  </si>
+  <si>
+    <t>Entrada en el Bundle: Solicitud Medicamento</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationRequest
+</t>
+  </si>
+  <si>
+    <t>Recurso base del estandar</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudMedicamento.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen</t>
+  </si>
+  <si>
+    <t>SolicitudExamen</t>
+  </si>
+  <si>
+    <t>Entrada en el Bundle: Solicitud Examen</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceRequest {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ServiceRequestExamenLE}
+</t>
+  </si>
+  <si>
+    <t>Solicitud de examen</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -2403,7 +2621,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN369"/>
+  <dimension ref="A1:AN433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2412,9 +2630,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.38671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.8046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3382,7 +3600,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>87</v>
@@ -44148,9 +44366,11 @@
         <v>663</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="C369" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C369" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="D369" t="s" s="2">
         <v>77</v>
       </c>
@@ -44159,7 +44379,7 @@
         <v>78</v>
       </c>
       <c r="G369" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H369" t="s" s="2">
         <v>77</v>
@@ -44171,20 +44391,16 @@
         <v>88</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>664</v>
+        <v>145</v>
       </c>
       <c r="L369" t="s" s="2">
         <v>665</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N369" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O369" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N369" s="2"/>
+      <c r="O369" s="2"/>
       <c r="P369" t="s" s="2">
         <v>77</v>
       </c>
@@ -44232,35 +44448,7285 @@
         <v>77</v>
       </c>
       <c r="AF369" t="s" s="2">
-        <v>663</v>
+        <v>175</v>
       </c>
       <c r="AG369" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH369" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI369" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ369" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN369" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="370" hidden="true">
+      <c r="A370" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C370" s="2"/>
+      <c r="D370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E370" s="2"/>
+      <c r="F370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G370" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N370" s="2"/>
+      <c r="O370" s="2"/>
+      <c r="P370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q370" s="2"/>
+      <c r="R370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL370" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN370" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="371" hidden="true">
+      <c r="A371" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C371" s="2"/>
+      <c r="D371" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E371" s="2"/>
+      <c r="F371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O371" s="2"/>
+      <c r="P371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q371" s="2"/>
+      <c r="R371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL371" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN371" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="372" hidden="true">
+      <c r="A372" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C372" s="2"/>
+      <c r="D372" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E372" s="2"/>
+      <c r="F372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q372" s="2"/>
+      <c r="R372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ372" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL372" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN372" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="373" hidden="true">
+      <c r="A373" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C373" s="2"/>
+      <c r="D373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E373" s="2"/>
+      <c r="F373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N373" s="2"/>
+      <c r="O373" s="2"/>
+      <c r="P373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q373" s="2"/>
+      <c r="R373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ373" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK369" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL369" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM369" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN369" t="s" s="2">
+      <c r="AK373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN373" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="374" hidden="true">
+      <c r="A374" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C374" s="2"/>
+      <c r="D374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E374" s="2"/>
+      <c r="F374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G374" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O374" s="2"/>
+      <c r="P374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q374" s="2"/>
+      <c r="R374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH374" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ374" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN374" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="375" hidden="true">
+      <c r="A375" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C375" s="2"/>
+      <c r="D375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E375" s="2"/>
+      <c r="F375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G375" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N375" s="2"/>
+      <c r="O375" s="2"/>
+      <c r="P375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q375" s="2"/>
+      <c r="R375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH375" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN375" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="376" hidden="true">
+      <c r="A376" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C376" s="2"/>
+      <c r="D376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E376" s="2"/>
+      <c r="F376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G376" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N376" s="2"/>
+      <c r="O376" s="2"/>
+      <c r="P376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q376" s="2"/>
+      <c r="R376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH376" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI376" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ376" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN376" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="377" hidden="true">
+      <c r="A377" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C377" s="2"/>
+      <c r="D377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E377" s="2"/>
+      <c r="F377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G377" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N377" s="2"/>
+      <c r="O377" s="2"/>
+      <c r="P377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q377" s="2"/>
+      <c r="R377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH377" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL377" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN377" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="378" hidden="true">
+      <c r="A378" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B378" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C378" s="2"/>
+      <c r="D378" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E378" s="2"/>
+      <c r="F378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G378" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L378" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N378" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O378" s="2"/>
+      <c r="P378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q378" s="2"/>
+      <c r="R378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF378" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH378" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ378" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL378" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN378" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="379" hidden="true">
+      <c r="A379" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="B379" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C379" s="2"/>
+      <c r="D379" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E379" s="2"/>
+      <c r="F379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G379" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I379" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J379" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q379" s="2"/>
+      <c r="R379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF379" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH379" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ379" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL379" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN379" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="380" hidden="true">
+      <c r="A380" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C380" s="2"/>
+      <c r="D380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E380" s="2"/>
+      <c r="F380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G380" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J380" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K380" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L380" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N380" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O380" s="2"/>
+      <c r="P380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q380" s="2"/>
+      <c r="R380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X380" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y380" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z380" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF380" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH380" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ380" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN380" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="381" hidden="true">
+      <c r="A381" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C381" s="2"/>
+      <c r="D381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E381" s="2"/>
+      <c r="F381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G381" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J381" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K381" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N381" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O381" s="2"/>
+      <c r="P381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q381" s="2"/>
+      <c r="R381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF381" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH381" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ381" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN381" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="382" hidden="true">
+      <c r="A382" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C382" s="2"/>
+      <c r="D382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E382" s="2"/>
+      <c r="F382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G382" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J382" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K382" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M382" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N382" s="2"/>
+      <c r="O382" s="2"/>
+      <c r="P382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q382" s="2"/>
+      <c r="R382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF382" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH382" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI382" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AJ382" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN382" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="383" hidden="true">
+      <c r="A383" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C383" s="2"/>
+      <c r="D383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E383" s="2"/>
+      <c r="F383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G383" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M383" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N383" s="2"/>
+      <c r="O383" s="2"/>
+      <c r="P383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q383" s="2"/>
+      <c r="R383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF383" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH383" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL383" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN383" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="384" hidden="true">
+      <c r="A384" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="B384" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C384" s="2"/>
+      <c r="D384" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E384" s="2"/>
+      <c r="F384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G384" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K384" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L384" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N384" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O384" s="2"/>
+      <c r="P384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q384" s="2"/>
+      <c r="R384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF384" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH384" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ384" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL384" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN384" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="385" hidden="true">
+      <c r="A385" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="B385" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C385" s="2"/>
+      <c r="D385" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E385" s="2"/>
+      <c r="F385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G385" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I385" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J385" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K385" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L385" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q385" s="2"/>
+      <c r="R385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF385" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH385" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ385" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL385" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN385" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="386" hidden="true">
+      <c r="A386" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B386" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C386" s="2"/>
+      <c r="D386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E386" s="2"/>
+      <c r="F386" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G386" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J386" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K386" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L386" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M386" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N386" s="2"/>
+      <c r="O386" s="2"/>
+      <c r="P386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q386" s="2"/>
+      <c r="R386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X386" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y386" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z386" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF386" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG386" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH386" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ386" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN386" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="387" hidden="true">
+      <c r="A387" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="B387" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C387" s="2"/>
+      <c r="D387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E387" s="2"/>
+      <c r="F387" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G387" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J387" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K387" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L387" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M387" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N387" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O387" s="2"/>
+      <c r="P387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q387" s="2"/>
+      <c r="R387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF387" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG387" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH387" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ387" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN387" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="388" hidden="true">
+      <c r="A388" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B388" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C388" s="2"/>
+      <c r="D388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E388" s="2"/>
+      <c r="F388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G388" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J388" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K388" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L388" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M388" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N388" s="2"/>
+      <c r="O388" s="2"/>
+      <c r="P388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q388" s="2"/>
+      <c r="R388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF388" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH388" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ388" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN388" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="389" hidden="true">
+      <c r="A389" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="B389" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C389" s="2"/>
+      <c r="D389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E389" s="2"/>
+      <c r="F389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G389" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J389" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K389" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L389" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N389" s="2"/>
+      <c r="O389" s="2"/>
+      <c r="P389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q389" s="2"/>
+      <c r="R389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF389" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH389" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ389" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN389" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="390" hidden="true">
+      <c r="A390" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B390" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C390" s="2"/>
+      <c r="D390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E390" s="2"/>
+      <c r="F390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G390" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J390" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K390" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L390" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N390" s="2"/>
+      <c r="O390" s="2"/>
+      <c r="P390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q390" s="2"/>
+      <c r="R390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF390" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH390" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ390" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN390" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="391" hidden="true">
+      <c r="A391" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="B391" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C391" s="2"/>
+      <c r="D391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E391" s="2"/>
+      <c r="F391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G391" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J391" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K391" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L391" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N391" s="2"/>
+      <c r="O391" s="2"/>
+      <c r="P391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q391" s="2"/>
+      <c r="R391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF391" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH391" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ391" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN391" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="392" hidden="true">
+      <c r="A392" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B392" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C392" s="2"/>
+      <c r="D392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E392" s="2"/>
+      <c r="F392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G392" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J392" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K392" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L392" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M392" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N392" s="2"/>
+      <c r="O392" s="2"/>
+      <c r="P392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q392" s="2"/>
+      <c r="R392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF392" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH392" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI392" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ392" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN392" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="393" hidden="true">
+      <c r="A393" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="B393" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C393" s="2"/>
+      <c r="D393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E393" s="2"/>
+      <c r="F393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G393" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K393" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L393" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M393" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N393" s="2"/>
+      <c r="O393" s="2"/>
+      <c r="P393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q393" s="2"/>
+      <c r="R393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF393" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH393" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL393" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN393" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="394" hidden="true">
+      <c r="A394" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="B394" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C394" s="2"/>
+      <c r="D394" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E394" s="2"/>
+      <c r="F394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G394" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K394" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L394" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O394" s="2"/>
+      <c r="P394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q394" s="2"/>
+      <c r="R394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF394" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH394" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ394" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL394" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN394" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="395" hidden="true">
+      <c r="A395" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B395" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C395" s="2"/>
+      <c r="D395" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E395" s="2"/>
+      <c r="F395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G395" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I395" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J395" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K395" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L395" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M395" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N395" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q395" s="2"/>
+      <c r="R395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF395" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH395" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ395" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL395" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN395" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="396" hidden="true">
+      <c r="A396" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B396" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C396" s="2"/>
+      <c r="D396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E396" s="2"/>
+      <c r="F396" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G396" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J396" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K396" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L396" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M396" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N396" s="2"/>
+      <c r="O396" s="2"/>
+      <c r="P396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q396" s="2"/>
+      <c r="R396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF396" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG396" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH396" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ396" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN396" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="397" hidden="true">
+      <c r="A397" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="B397" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C397" s="2"/>
+      <c r="D397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E397" s="2"/>
+      <c r="F397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G397" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J397" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K397" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L397" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M397" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N397" s="2"/>
+      <c r="O397" s="2"/>
+      <c r="P397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q397" s="2"/>
+      <c r="R397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF397" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH397" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ397" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN397" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="398" hidden="true">
+      <c r="A398" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B398" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C398" s="2"/>
+      <c r="D398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E398" s="2"/>
+      <c r="F398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G398" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J398" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K398" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L398" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M398" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N398" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O398" s="2"/>
+      <c r="P398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q398" s="2"/>
+      <c r="R398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF398" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH398" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ398" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN398" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="399" hidden="true">
+      <c r="A399" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="B399" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C399" s="2"/>
+      <c r="D399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E399" s="2"/>
+      <c r="F399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G399" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J399" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K399" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L399" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N399" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O399" s="2"/>
+      <c r="P399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q399" s="2"/>
+      <c r="R399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF399" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH399" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ399" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN399" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="400" hidden="true">
+      <c r="A400" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B400" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C400" s="2"/>
+      <c r="D400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E400" s="2"/>
+      <c r="F400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G400" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J400" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K400" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L400" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N400" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O400" s="2"/>
+      <c r="P400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q400" s="2"/>
+      <c r="R400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF400" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH400" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN400" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="401" hidden="true">
+      <c r="A401" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="B401" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C401" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="D401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E401" s="2"/>
+      <c r="F401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G401" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J401" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K401" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L401" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="M401" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N401" s="2"/>
+      <c r="O401" s="2"/>
+      <c r="P401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q401" s="2"/>
+      <c r="R401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF401" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH401" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ401" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN401" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="402" hidden="true">
+      <c r="A402" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B402" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C402" s="2"/>
+      <c r="D402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E402" s="2"/>
+      <c r="F402" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G402" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K402" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L402" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M402" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N402" s="2"/>
+      <c r="O402" s="2"/>
+      <c r="P402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q402" s="2"/>
+      <c r="R402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF402" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG402" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH402" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL402" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM402" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN402" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="403" hidden="true">
+      <c r="A403" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="B403" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C403" s="2"/>
+      <c r="D403" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E403" s="2"/>
+      <c r="F403" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G403" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K403" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L403" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N403" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O403" s="2"/>
+      <c r="P403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q403" s="2"/>
+      <c r="R403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF403" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG403" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH403" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ403" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL403" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN403" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="404" hidden="true">
+      <c r="A404" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B404" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C404" s="2"/>
+      <c r="D404" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E404" s="2"/>
+      <c r="F404" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G404" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I404" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J404" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K404" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L404" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M404" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N404" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O404" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q404" s="2"/>
+      <c r="R404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF404" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG404" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH404" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ404" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL404" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM404" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN404" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="405" hidden="true">
+      <c r="A405" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="B405" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C405" s="2"/>
+      <c r="D405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E405" s="2"/>
+      <c r="F405" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G405" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J405" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K405" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L405" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M405" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N405" s="2"/>
+      <c r="O405" s="2"/>
+      <c r="P405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q405" s="2"/>
+      <c r="R405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF405" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG405" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH405" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ405" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN405" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="406" hidden="true">
+      <c r="A406" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="B406" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C406" s="2"/>
+      <c r="D406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E406" s="2"/>
+      <c r="F406" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G406" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J406" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K406" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L406" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M406" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N406" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O406" s="2"/>
+      <c r="P406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q406" s="2"/>
+      <c r="R406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF406" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG406" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH406" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ406" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN406" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="407" hidden="true">
+      <c r="A407" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="B407" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C407" s="2"/>
+      <c r="D407" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="E407" s="2"/>
+      <c r="F407" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G407" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K407" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="L407" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M407" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N407" s="2"/>
+      <c r="O407" s="2"/>
+      <c r="P407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q407" s="2"/>
+      <c r="R407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF407" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG407" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH407" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ407" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK407" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL407" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM407" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN407" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="408" hidden="true">
+      <c r="A408" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B408" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C408" s="2"/>
+      <c r="D408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E408" s="2"/>
+      <c r="F408" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G408" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J408" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K408" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L408" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M408" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N408" s="2"/>
+      <c r="O408" s="2"/>
+      <c r="P408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q408" s="2"/>
+      <c r="R408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF408" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG408" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH408" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI408" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ408" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM408" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN408" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="409" hidden="true">
+      <c r="A409" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="B409" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C409" s="2"/>
+      <c r="D409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E409" s="2"/>
+      <c r="F409" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G409" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K409" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L409" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M409" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N409" s="2"/>
+      <c r="O409" s="2"/>
+      <c r="P409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q409" s="2"/>
+      <c r="R409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF409" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG409" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH409" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL409" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM409" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN409" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="410" hidden="true">
+      <c r="A410" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="B410" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C410" s="2"/>
+      <c r="D410" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E410" s="2"/>
+      <c r="F410" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G410" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K410" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L410" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M410" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N410" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O410" s="2"/>
+      <c r="P410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q410" s="2"/>
+      <c r="R410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF410" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG410" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH410" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ410" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL410" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN410" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="411" hidden="true">
+      <c r="A411" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B411" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C411" s="2"/>
+      <c r="D411" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E411" s="2"/>
+      <c r="F411" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G411" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I411" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J411" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K411" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L411" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M411" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N411" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O411" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q411" s="2"/>
+      <c r="R411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF411" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG411" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH411" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ411" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL411" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM411" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN411" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="412" hidden="true">
+      <c r="A412" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B412" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C412" s="2"/>
+      <c r="D412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E412" s="2"/>
+      <c r="F412" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G412" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J412" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K412" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L412" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M412" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N412" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O412" s="2"/>
+      <c r="P412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q412" s="2"/>
+      <c r="R412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X412" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y412" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF412" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG412" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH412" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ412" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM412" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN412" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="413" hidden="true">
+      <c r="A413" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B413" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C413" s="2"/>
+      <c r="D413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E413" s="2"/>
+      <c r="F413" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G413" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J413" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K413" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L413" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M413" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N413" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O413" s="2"/>
+      <c r="P413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q413" s="2"/>
+      <c r="R413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF413" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG413" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH413" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ413" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM413" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN413" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="414" hidden="true">
+      <c r="A414" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="B414" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C414" s="2"/>
+      <c r="D414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E414" s="2"/>
+      <c r="F414" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G414" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J414" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K414" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L414" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M414" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N414" s="2"/>
+      <c r="O414" s="2"/>
+      <c r="P414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q414" s="2"/>
+      <c r="R414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF414" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG414" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH414" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI414" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AJ414" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM414" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN414" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="415" hidden="true">
+      <c r="A415" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="B415" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C415" s="2"/>
+      <c r="D415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E415" s="2"/>
+      <c r="F415" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G415" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K415" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L415" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M415" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N415" s="2"/>
+      <c r="O415" s="2"/>
+      <c r="P415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q415" s="2"/>
+      <c r="R415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF415" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG415" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH415" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL415" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM415" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN415" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="416" hidden="true">
+      <c r="A416" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="B416" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C416" s="2"/>
+      <c r="D416" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E416" s="2"/>
+      <c r="F416" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G416" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K416" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L416" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M416" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N416" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O416" s="2"/>
+      <c r="P416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q416" s="2"/>
+      <c r="R416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF416" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG416" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH416" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ416" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL416" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM416" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN416" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="417" hidden="true">
+      <c r="A417" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="B417" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C417" s="2"/>
+      <c r="D417" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E417" s="2"/>
+      <c r="F417" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G417" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I417" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J417" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K417" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L417" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M417" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N417" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O417" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q417" s="2"/>
+      <c r="R417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF417" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG417" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH417" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ417" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL417" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM417" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN417" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="418" hidden="true">
+      <c r="A418" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="B418" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C418" s="2"/>
+      <c r="D418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E418" s="2"/>
+      <c r="F418" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G418" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J418" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K418" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L418" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M418" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N418" s="2"/>
+      <c r="O418" s="2"/>
+      <c r="P418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q418" s="2"/>
+      <c r="R418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X418" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y418" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z418" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF418" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG418" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH418" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ418" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM418" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN418" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="419" hidden="true">
+      <c r="A419" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="B419" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C419" s="2"/>
+      <c r="D419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E419" s="2"/>
+      <c r="F419" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G419" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J419" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K419" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L419" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M419" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N419" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O419" s="2"/>
+      <c r="P419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q419" s="2"/>
+      <c r="R419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF419" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG419" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH419" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ419" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM419" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN419" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="420" hidden="true">
+      <c r="A420" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B420" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C420" s="2"/>
+      <c r="D420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E420" s="2"/>
+      <c r="F420" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G420" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J420" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K420" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L420" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M420" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N420" s="2"/>
+      <c r="O420" s="2"/>
+      <c r="P420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q420" s="2"/>
+      <c r="R420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF420" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG420" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH420" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ420" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM420" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN420" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="421" hidden="true">
+      <c r="A421" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="B421" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C421" s="2"/>
+      <c r="D421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E421" s="2"/>
+      <c r="F421" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G421" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J421" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K421" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L421" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M421" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N421" s="2"/>
+      <c r="O421" s="2"/>
+      <c r="P421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q421" s="2"/>
+      <c r="R421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF421" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG421" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH421" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ421" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM421" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN421" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="422" hidden="true">
+      <c r="A422" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B422" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C422" s="2"/>
+      <c r="D422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E422" s="2"/>
+      <c r="F422" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G422" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J422" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K422" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L422" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M422" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N422" s="2"/>
+      <c r="O422" s="2"/>
+      <c r="P422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q422" s="2"/>
+      <c r="R422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF422" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG422" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH422" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ422" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN422" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="423" hidden="true">
+      <c r="A423" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B423" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C423" s="2"/>
+      <c r="D423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E423" s="2"/>
+      <c r="F423" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G423" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J423" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K423" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L423" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M423" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N423" s="2"/>
+      <c r="O423" s="2"/>
+      <c r="P423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q423" s="2"/>
+      <c r="R423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF423" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG423" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH423" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ423" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM423" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN423" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="424" hidden="true">
+      <c r="A424" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B424" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C424" s="2"/>
+      <c r="D424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E424" s="2"/>
+      <c r="F424" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G424" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J424" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K424" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L424" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M424" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N424" s="2"/>
+      <c r="O424" s="2"/>
+      <c r="P424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q424" s="2"/>
+      <c r="R424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF424" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG424" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH424" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI424" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ424" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM424" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN424" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="425" hidden="true">
+      <c r="A425" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="B425" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C425" s="2"/>
+      <c r="D425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E425" s="2"/>
+      <c r="F425" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G425" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K425" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L425" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M425" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N425" s="2"/>
+      <c r="O425" s="2"/>
+      <c r="P425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q425" s="2"/>
+      <c r="R425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF425" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG425" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH425" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL425" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM425" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN425" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="426" hidden="true">
+      <c r="A426" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="B426" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C426" s="2"/>
+      <c r="D426" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E426" s="2"/>
+      <c r="F426" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G426" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K426" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L426" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M426" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N426" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O426" s="2"/>
+      <c r="P426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q426" s="2"/>
+      <c r="R426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF426" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG426" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH426" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ426" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL426" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM426" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN426" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="427" hidden="true">
+      <c r="A427" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="B427" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C427" s="2"/>
+      <c r="D427" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E427" s="2"/>
+      <c r="F427" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G427" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I427" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J427" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K427" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L427" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M427" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N427" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O427" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q427" s="2"/>
+      <c r="R427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF427" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG427" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH427" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ427" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL427" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM427" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN427" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="428" hidden="true">
+      <c r="A428" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B428" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C428" s="2"/>
+      <c r="D428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E428" s="2"/>
+      <c r="F428" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G428" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J428" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K428" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L428" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M428" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N428" s="2"/>
+      <c r="O428" s="2"/>
+      <c r="P428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q428" s="2"/>
+      <c r="R428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF428" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG428" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH428" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ428" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM428" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN428" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="429" hidden="true">
+      <c r="A429" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B429" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C429" s="2"/>
+      <c r="D429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E429" s="2"/>
+      <c r="F429" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G429" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J429" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K429" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L429" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M429" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N429" s="2"/>
+      <c r="O429" s="2"/>
+      <c r="P429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q429" s="2"/>
+      <c r="R429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF429" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG429" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH429" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ429" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM429" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN429" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="430" hidden="true">
+      <c r="A430" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B430" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C430" s="2"/>
+      <c r="D430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E430" s="2"/>
+      <c r="F430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G430" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J430" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K430" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L430" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M430" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N430" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O430" s="2"/>
+      <c r="P430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q430" s="2"/>
+      <c r="R430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF430" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG430" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH430" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ430" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM430" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN430" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="431" hidden="true">
+      <c r="A431" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B431" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C431" s="2"/>
+      <c r="D431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E431" s="2"/>
+      <c r="F431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G431" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J431" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K431" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L431" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M431" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N431" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O431" s="2"/>
+      <c r="P431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q431" s="2"/>
+      <c r="R431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF431" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG431" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH431" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ431" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM431" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN431" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="432" hidden="true">
+      <c r="A432" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="B432" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C432" s="2"/>
+      <c r="D432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E432" s="2"/>
+      <c r="F432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G432" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J432" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K432" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L432" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M432" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N432" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O432" s="2"/>
+      <c r="P432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q432" s="2"/>
+      <c r="R432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF432" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG432" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH432" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM432" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN432" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="433" hidden="true">
+      <c r="A433" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B433" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="C433" s="2"/>
+      <c r="D433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E433" s="2"/>
+      <c r="F433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G433" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J433" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K433" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L433" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M433" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="N433" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="O433" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="P433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q433" s="2"/>
+      <c r="R433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF433" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AG433" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH433" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ433" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN433" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN369">
+  <autoFilter ref="A1:AN433">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -44270,7 +51736,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI368">
+  <conditionalFormatting sqref="A2:AI432">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$465</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15471" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16612" uniqueCount="777">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2283,6 +2283,115 @@
   </si>
   <si>
     <t>Bundle.entry:SolicitudExamen.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis</t>
+  </si>
+  <si>
+    <t>Anamnesis</t>
+  </si>
+  <si>
+    <t>Entrada en el Bundle: Anamnesis</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationAnamnesisLE}
+</t>
+  </si>
+  <si>
+    <t>Anmanesis</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Anamnesis.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -2621,7 +2730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN433"/>
+  <dimension ref="A1:AN465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -51614,9 +51723,11 @@
         <v>735</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="C433" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C433" t="s" s="2">
+        <v>736</v>
+      </c>
       <c r="D433" t="s" s="2">
         <v>77</v>
       </c>
@@ -51637,20 +51748,16 @@
         <v>88</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>736</v>
+        <v>145</v>
       </c>
       <c r="L433" t="s" s="2">
         <v>737</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="N433" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="O433" t="s" s="2">
-        <v>740</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N433" s="2"/>
+      <c r="O433" s="2"/>
       <c r="P433" t="s" s="2">
         <v>77</v>
       </c>
@@ -51698,35 +51805,3663 @@
         <v>77</v>
       </c>
       <c r="AF433" t="s" s="2">
-        <v>735</v>
+        <v>175</v>
       </c>
       <c r="AG433" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH433" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI433" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ433" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN433" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="434" hidden="true">
+      <c r="A434" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B434" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C434" s="2"/>
+      <c r="D434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E434" s="2"/>
+      <c r="F434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G434" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K434" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L434" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M434" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N434" s="2"/>
+      <c r="O434" s="2"/>
+      <c r="P434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q434" s="2"/>
+      <c r="R434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF434" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH434" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL434" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN434" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="435" hidden="true">
+      <c r="A435" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="B435" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C435" s="2"/>
+      <c r="D435" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E435" s="2"/>
+      <c r="F435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G435" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K435" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L435" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M435" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N435" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O435" s="2"/>
+      <c r="P435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q435" s="2"/>
+      <c r="R435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF435" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH435" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ435" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL435" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN435" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="436" hidden="true">
+      <c r="A436" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="B436" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C436" s="2"/>
+      <c r="D436" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E436" s="2"/>
+      <c r="F436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G436" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I436" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J436" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K436" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L436" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M436" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N436" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O436" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q436" s="2"/>
+      <c r="R436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF436" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH436" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ436" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL436" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN436" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="437" hidden="true">
+      <c r="A437" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="B437" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C437" s="2"/>
+      <c r="D437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E437" s="2"/>
+      <c r="F437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G437" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J437" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K437" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L437" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M437" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N437" s="2"/>
+      <c r="O437" s="2"/>
+      <c r="P437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q437" s="2"/>
+      <c r="R437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF437" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH437" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ437" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN433" t="s" s="2">
+      <c r="AK437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN437" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="438" hidden="true">
+      <c r="A438" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B438" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C438" s="2"/>
+      <c r="D438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E438" s="2"/>
+      <c r="F438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G438" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J438" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K438" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L438" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M438" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N438" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O438" s="2"/>
+      <c r="P438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q438" s="2"/>
+      <c r="R438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF438" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH438" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ438" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN438" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="439" hidden="true">
+      <c r="A439" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="B439" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C439" s="2"/>
+      <c r="D439" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="E439" s="2"/>
+      <c r="F439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G439" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K439" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="L439" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M439" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N439" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O439" s="2"/>
+      <c r="P439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q439" s="2"/>
+      <c r="R439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF439" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH439" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ439" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AK439" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AL439" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AM439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN439" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="440" hidden="true">
+      <c r="A440" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B440" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C440" s="2"/>
+      <c r="D440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E440" s="2"/>
+      <c r="F440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G440" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J440" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K440" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L440" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M440" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N440" s="2"/>
+      <c r="O440" s="2"/>
+      <c r="P440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q440" s="2"/>
+      <c r="R440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF440" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH440" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI440" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ440" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN440" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="441" hidden="true">
+      <c r="A441" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="B441" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C441" s="2"/>
+      <c r="D441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E441" s="2"/>
+      <c r="F441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G441" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K441" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L441" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M441" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N441" s="2"/>
+      <c r="O441" s="2"/>
+      <c r="P441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q441" s="2"/>
+      <c r="R441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF441" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH441" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL441" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN441" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="442" hidden="true">
+      <c r="A442" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B442" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C442" s="2"/>
+      <c r="D442" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E442" s="2"/>
+      <c r="F442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G442" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K442" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L442" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M442" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N442" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O442" s="2"/>
+      <c r="P442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q442" s="2"/>
+      <c r="R442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF442" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH442" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ442" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL442" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN442" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="443" hidden="true">
+      <c r="A443" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="B443" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C443" s="2"/>
+      <c r="D443" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E443" s="2"/>
+      <c r="F443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G443" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I443" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J443" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K443" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L443" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M443" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N443" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O443" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q443" s="2"/>
+      <c r="R443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF443" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH443" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ443" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL443" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN443" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="444" hidden="true">
+      <c r="A444" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="B444" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C444" s="2"/>
+      <c r="D444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E444" s="2"/>
+      <c r="F444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G444" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J444" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K444" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L444" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M444" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N444" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O444" s="2"/>
+      <c r="P444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q444" s="2"/>
+      <c r="R444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X444" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y444" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z444" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF444" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH444" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ444" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN444" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="445" hidden="true">
+      <c r="A445" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="B445" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C445" s="2"/>
+      <c r="D445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E445" s="2"/>
+      <c r="F445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G445" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J445" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K445" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L445" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M445" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N445" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O445" s="2"/>
+      <c r="P445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q445" s="2"/>
+      <c r="R445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF445" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH445" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ445" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN445" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="446" hidden="true">
+      <c r="A446" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B446" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C446" s="2"/>
+      <c r="D446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E446" s="2"/>
+      <c r="F446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G446" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J446" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K446" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L446" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M446" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N446" s="2"/>
+      <c r="O446" s="2"/>
+      <c r="P446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q446" s="2"/>
+      <c r="R446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF446" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH446" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI446" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AJ446" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN446" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="447" hidden="true">
+      <c r="A447" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="B447" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C447" s="2"/>
+      <c r="D447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E447" s="2"/>
+      <c r="F447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G447" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K447" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L447" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M447" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N447" s="2"/>
+      <c r="O447" s="2"/>
+      <c r="P447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q447" s="2"/>
+      <c r="R447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF447" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH447" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL447" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN447" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="448" hidden="true">
+      <c r="A448" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B448" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C448" s="2"/>
+      <c r="D448" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E448" s="2"/>
+      <c r="F448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G448" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K448" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L448" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M448" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N448" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O448" s="2"/>
+      <c r="P448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q448" s="2"/>
+      <c r="R448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF448" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH448" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ448" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL448" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN448" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="449" hidden="true">
+      <c r="A449" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B449" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C449" s="2"/>
+      <c r="D449" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E449" s="2"/>
+      <c r="F449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G449" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I449" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J449" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K449" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L449" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M449" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N449" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O449" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q449" s="2"/>
+      <c r="R449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF449" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH449" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ449" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL449" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN449" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="450" hidden="true">
+      <c r="A450" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B450" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C450" s="2"/>
+      <c r="D450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E450" s="2"/>
+      <c r="F450" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G450" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J450" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K450" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L450" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M450" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N450" s="2"/>
+      <c r="O450" s="2"/>
+      <c r="P450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q450" s="2"/>
+      <c r="R450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X450" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y450" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z450" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF450" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG450" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH450" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ450" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN450" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="451" hidden="true">
+      <c r="A451" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="B451" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C451" s="2"/>
+      <c r="D451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E451" s="2"/>
+      <c r="F451" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G451" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J451" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K451" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L451" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M451" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N451" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O451" s="2"/>
+      <c r="P451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q451" s="2"/>
+      <c r="R451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF451" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG451" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH451" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ451" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN451" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="452" hidden="true">
+      <c r="A452" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="B452" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C452" s="2"/>
+      <c r="D452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E452" s="2"/>
+      <c r="F452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G452" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J452" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K452" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L452" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M452" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N452" s="2"/>
+      <c r="O452" s="2"/>
+      <c r="P452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q452" s="2"/>
+      <c r="R452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF452" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH452" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ452" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN452" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="453" hidden="true">
+      <c r="A453" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="B453" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C453" s="2"/>
+      <c r="D453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E453" s="2"/>
+      <c r="F453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G453" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J453" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K453" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L453" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M453" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N453" s="2"/>
+      <c r="O453" s="2"/>
+      <c r="P453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q453" s="2"/>
+      <c r="R453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF453" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH453" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ453" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN453" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="454" hidden="true">
+      <c r="A454" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B454" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C454" s="2"/>
+      <c r="D454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E454" s="2"/>
+      <c r="F454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G454" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J454" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K454" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L454" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M454" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N454" s="2"/>
+      <c r="O454" s="2"/>
+      <c r="P454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q454" s="2"/>
+      <c r="R454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF454" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH454" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ454" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN454" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="455" hidden="true">
+      <c r="A455" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B455" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C455" s="2"/>
+      <c r="D455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E455" s="2"/>
+      <c r="F455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G455" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J455" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K455" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L455" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M455" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N455" s="2"/>
+      <c r="O455" s="2"/>
+      <c r="P455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q455" s="2"/>
+      <c r="R455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF455" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH455" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ455" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN455" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="456" hidden="true">
+      <c r="A456" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="B456" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C456" s="2"/>
+      <c r="D456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E456" s="2"/>
+      <c r="F456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G456" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J456" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K456" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L456" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M456" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N456" s="2"/>
+      <c r="O456" s="2"/>
+      <c r="P456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q456" s="2"/>
+      <c r="R456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF456" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH456" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI456" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ456" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN456" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="457" hidden="true">
+      <c r="A457" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B457" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C457" s="2"/>
+      <c r="D457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E457" s="2"/>
+      <c r="F457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G457" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K457" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L457" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M457" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N457" s="2"/>
+      <c r="O457" s="2"/>
+      <c r="P457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q457" s="2"/>
+      <c r="R457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF457" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH457" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL457" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN457" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="458" hidden="true">
+      <c r="A458" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="B458" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C458" s="2"/>
+      <c r="D458" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E458" s="2"/>
+      <c r="F458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G458" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K458" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L458" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M458" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N458" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O458" s="2"/>
+      <c r="P458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q458" s="2"/>
+      <c r="R458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF458" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH458" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ458" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL458" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN458" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="459" hidden="true">
+      <c r="A459" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="B459" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C459" s="2"/>
+      <c r="D459" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E459" s="2"/>
+      <c r="F459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G459" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I459" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J459" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K459" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L459" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M459" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N459" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O459" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q459" s="2"/>
+      <c r="R459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF459" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH459" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ459" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL459" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN459" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="460" hidden="true">
+      <c r="A460" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="B460" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C460" s="2"/>
+      <c r="D460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E460" s="2"/>
+      <c r="F460" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G460" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J460" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K460" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L460" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M460" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N460" s="2"/>
+      <c r="O460" s="2"/>
+      <c r="P460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q460" s="2"/>
+      <c r="R460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF460" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG460" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH460" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ460" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN460" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="461" hidden="true">
+      <c r="A461" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="B461" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C461" s="2"/>
+      <c r="D461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E461" s="2"/>
+      <c r="F461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G461" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J461" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K461" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L461" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M461" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N461" s="2"/>
+      <c r="O461" s="2"/>
+      <c r="P461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q461" s="2"/>
+      <c r="R461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF461" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH461" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ461" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN461" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="462" hidden="true">
+      <c r="A462" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="B462" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C462" s="2"/>
+      <c r="D462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E462" s="2"/>
+      <c r="F462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G462" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J462" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K462" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L462" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M462" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N462" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O462" s="2"/>
+      <c r="P462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q462" s="2"/>
+      <c r="R462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF462" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH462" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ462" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN462" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="463" hidden="true">
+      <c r="A463" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="B463" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C463" s="2"/>
+      <c r="D463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E463" s="2"/>
+      <c r="F463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G463" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J463" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K463" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L463" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M463" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N463" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O463" s="2"/>
+      <c r="P463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q463" s="2"/>
+      <c r="R463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF463" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH463" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ463" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN463" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="464" hidden="true">
+      <c r="A464" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="B464" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C464" s="2"/>
+      <c r="D464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E464" s="2"/>
+      <c r="F464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G464" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J464" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K464" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L464" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M464" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N464" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O464" s="2"/>
+      <c r="P464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q464" s="2"/>
+      <c r="R464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF464" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH464" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN464" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="465" hidden="true">
+      <c r="A465" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B465" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="C465" s="2"/>
+      <c r="D465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E465" s="2"/>
+      <c r="F465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G465" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J465" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K465" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L465" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M465" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N465" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="O465" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="P465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q465" s="2"/>
+      <c r="R465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF465" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AG465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH465" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ465" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN465" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN433">
+  <autoFilter ref="A1:AN465">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -51736,7 +55471,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI432">
+  <conditionalFormatting sqref="A2:AI464">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$465</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$433</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16612" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15471" uniqueCount="737">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -573,7 +573,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>8</t>
+    <t>7</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso o información</t>
@@ -1691,128 +1691,6 @@
   </si>
   <si>
     <t>Bundle.entry:carePlan.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse</t>
-  </si>
-  <si>
-    <t>questionnaireResponse</t>
-  </si>
-  <si>
-    <t>Entrada en el Bundle: contendrá un recurso QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.resource</t>
-  </si>
-  <si>
-    <t>Form
-QuestionnaireAnswers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuestionnaireResponse {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/QuestionnaireResponseAtenderLE}
-</t>
-  </si>
-  <si>
-    <t>Recurso utilizado para guardar la anamnesis del paciente</t>
-  </si>
-  <si>
-    <t>A structured set of questions and their answers. The questions are ordered and grouped into coherent subsets, corresponding to the structure of the grouping of the questionnaire being responded to.</t>
-  </si>
-  <si>
-    <t>The QuestionnaireResponse contains enough information about the questions asked and their organization that it can be interpreted somewhat independently from the Questionnaire it is based on.  I.e. You don't need access to the Questionnaire in order to extract basic information from a QuestionnaireResponse.</t>
-  </si>
-  <si>
-    <t>Observation[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:questionnaireResponse.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:AllergyIntolerance</t>
@@ -2730,7 +2608,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN465"/>
+  <dimension ref="A1:AN433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2749,7 +2627,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="115.61328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -33607,10 +33485,10 @@
       </c>
       <c r="E273" s="2"/>
       <c r="F273" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G273" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H273" t="s" s="2">
         <v>77</v>
@@ -34373,13 +34251,13 @@
         <v>77</v>
       </c>
       <c r="AJ279" t="s" s="2">
-        <v>278</v>
+        <v>555</v>
       </c>
       <c r="AK279" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>77</v>
@@ -34390,7 +34268,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>196</v>
@@ -34502,7 +34380,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>200</v>
@@ -34614,7 +34492,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>201</v>
@@ -34728,7 +34606,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>202</v>
@@ -34844,7 +34722,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>203</v>
@@ -34958,7 +34836,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>209</v>
@@ -35072,7 +34950,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>214</v>
@@ -35184,7 +35062,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>218</v>
@@ -35296,7 +35174,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>219</v>
@@ -35410,7 +35288,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>220</v>
@@ -35526,7 +35404,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>221</v>
@@ -35638,7 +35516,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>226</v>
@@ -35752,7 +35630,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>230</v>
@@ -35864,7 +35742,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>233</v>
@@ -35976,7 +35854,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>235</v>
@@ -36088,7 +35966,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>238</v>
@@ -36200,7 +36078,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>241</v>
@@ -36312,7 +36190,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>245</v>
@@ -36424,7 +36302,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>246</v>
@@ -36538,7 +36416,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>247</v>
@@ -36654,7 +36532,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>248</v>
@@ -36766,7 +36644,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>251</v>
@@ -36878,7 +36756,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>254</v>
@@ -36992,7 +36870,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>258</v>
@@ -37106,7 +36984,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>262</v>
@@ -37220,13 +37098,13 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D305" t="s" s="2">
         <v>77</v>
@@ -37251,7 +37129,7 @@
         <v>145</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M305" t="s" s="2">
         <v>178</v>
@@ -37334,7 +37212,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>182</v>
@@ -37446,7 +37324,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>183</v>
@@ -37560,7 +37438,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>184</v>
@@ -37676,7 +37554,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>185</v>
@@ -37788,7 +37666,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>188</v>
@@ -37902,14 +37780,14 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
@@ -37928,16 +37806,16 @@
         <v>77</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
@@ -37999,13 +37877,13 @@
         <v>77</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>77</v>
+        <v>597</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>77</v>
@@ -38016,7 +37894,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>196</v>
@@ -38128,7 +38006,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>200</v>
@@ -38240,7 +38118,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>201</v>
@@ -38354,7 +38232,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>202</v>
@@ -38470,7 +38348,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>203</v>
@@ -38584,7 +38462,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>209</v>
@@ -38698,7 +38576,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>214</v>
@@ -38810,7 +38688,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>218</v>
@@ -38922,7 +38800,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>219</v>
@@ -39036,7 +38914,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>220</v>
@@ -39152,7 +39030,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>221</v>
@@ -39264,7 +39142,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>226</v>
@@ -39378,7 +39256,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>230</v>
@@ -39490,7 +39368,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>233</v>
@@ -39602,7 +39480,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>235</v>
@@ -39714,7 +39592,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>238</v>
@@ -39826,7 +39704,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>241</v>
@@ -39938,7 +39816,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>245</v>
@@ -40050,7 +39928,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>246</v>
@@ -40164,7 +40042,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>247</v>
@@ -40280,7 +40158,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>248</v>
@@ -40392,7 +40270,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>251</v>
@@ -40504,7 +40382,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>254</v>
@@ -40618,7 +40496,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>258</v>
@@ -40732,7 +40610,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>262</v>
@@ -40846,13 +40724,13 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>77</v>
@@ -40877,7 +40755,7 @@
         <v>145</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M337" t="s" s="2">
         <v>178</v>
@@ -40960,7 +40838,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>182</v>
@@ -41072,7 +40950,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>183</v>
@@ -41186,7 +41064,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>184</v>
@@ -41302,7 +41180,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>185</v>
@@ -41414,7 +41292,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>188</v>
@@ -41528,14 +41406,14 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>631</v>
+        <v>77</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -41551,7 +41429,7 @@
         <v>77</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K343" t="s" s="2">
         <v>632</v>
@@ -41560,11 +41438,9 @@
         <v>633</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N343" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N343" s="2"/>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
         <v>77</v>
@@ -41625,13 +41501,13 @@
         <v>77</v>
       </c>
       <c r="AJ343" t="s" s="2">
-        <v>636</v>
+        <v>77</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>637</v>
+        <v>77</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>596</v>
+        <v>77</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>77</v>
@@ -41642,7 +41518,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>196</v>
@@ -41754,7 +41630,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>200</v>
@@ -41866,7 +41742,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>201</v>
@@ -41980,7 +41856,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>202</v>
@@ -42096,7 +41972,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>203</v>
@@ -42210,7 +42086,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>209</v>
@@ -42324,7 +42200,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>214</v>
@@ -42436,7 +42312,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>218</v>
@@ -42548,7 +42424,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>219</v>
@@ -42662,7 +42538,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>220</v>
@@ -42778,7 +42654,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>221</v>
@@ -42890,7 +42766,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>226</v>
@@ -43004,7 +42880,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>230</v>
@@ -43116,7 +42992,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>233</v>
@@ -43228,7 +43104,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>235</v>
@@ -43340,7 +43216,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>238</v>
@@ -43452,7 +43328,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>241</v>
@@ -43564,7 +43440,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>245</v>
@@ -43676,7 +43552,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>246</v>
@@ -43790,7 +43666,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>247</v>
@@ -43906,7 +43782,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>248</v>
@@ -44018,7 +43894,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>251</v>
@@ -44130,7 +44006,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>254</v>
@@ -44244,7 +44120,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>258</v>
@@ -44358,7 +44234,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>262</v>
@@ -44472,13 +44348,13 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>77</v>
@@ -44503,7 +44379,7 @@
         <v>145</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M369" t="s" s="2">
         <v>178</v>
@@ -44586,7 +44462,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>182</v>
@@ -44698,7 +44574,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>183</v>
@@ -44812,7 +44688,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>184</v>
@@ -44928,7 +44804,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>185</v>
@@ -45040,7 +44916,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>188</v>
@@ -45154,14 +45030,14 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
@@ -45177,16 +45053,16 @@
         <v>77</v>
       </c>
       <c r="J375" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
@@ -45249,13 +45125,13 @@
         <v>77</v>
       </c>
       <c r="AJ375" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AM375" t="s" s="2">
         <v>77</v>
@@ -45266,7 +45142,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>196</v>
@@ -45378,7 +45254,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>200</v>
@@ -45490,7 +45366,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>201</v>
@@ -45604,7 +45480,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>202</v>
@@ -45720,7 +45596,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>203</v>
@@ -45834,7 +45710,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>209</v>
@@ -45948,7 +45824,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>214</v>
@@ -46060,7 +45936,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>218</v>
@@ -46172,7 +46048,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>219</v>
@@ -46286,7 +46162,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>220</v>
@@ -46402,7 +46278,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>221</v>
@@ -46514,7 +46390,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>226</v>
@@ -46628,7 +46504,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>230</v>
@@ -46740,7 +46616,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>233</v>
@@ -46852,7 +46728,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>235</v>
@@ -46964,7 +46840,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>238</v>
@@ -47076,7 +46952,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>241</v>
@@ -47188,7 +47064,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>245</v>
@@ -47300,7 +47176,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>246</v>
@@ -47414,7 +47290,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>247</v>
@@ -47530,7 +47406,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>248</v>
@@ -47642,7 +47518,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>251</v>
@@ -47754,7 +47630,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>254</v>
@@ -47868,7 +47744,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>258</v>
@@ -47982,7 +47858,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>262</v>
@@ -48096,13 +47972,13 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>77</v>
@@ -48112,7 +47988,7 @@
         <v>78</v>
       </c>
       <c r="G401" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H401" t="s" s="2">
         <v>77</v>
@@ -48127,7 +48003,7 @@
         <v>145</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M401" t="s" s="2">
         <v>178</v>
@@ -48210,7 +48086,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>182</v>
@@ -48322,7 +48198,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>183</v>
@@ -48436,7 +48312,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>184</v>
@@ -48552,7 +48428,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>185</v>
@@ -48664,7 +48540,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>188</v>
@@ -48778,14 +48654,14 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
-        <v>315</v>
+        <v>591</v>
       </c>
       <c r="E407" s="2"/>
       <c r="F407" t="s" s="2">
@@ -48804,15 +48680,17 @@
         <v>77</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N407" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N407" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="O407" s="2"/>
       <c r="P407" t="s" s="2">
         <v>77</v>
@@ -48873,13 +48751,13 @@
         <v>77</v>
       </c>
       <c r="AJ407" t="s" s="2">
-        <v>319</v>
+        <v>596</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>320</v>
+        <v>597</v>
       </c>
       <c r="AL407" t="s" s="2">
-        <v>321</v>
+        <v>556</v>
       </c>
       <c r="AM407" t="s" s="2">
         <v>77</v>
@@ -48890,7 +48768,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>196</v>
@@ -49002,7 +48880,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>200</v>
@@ -49114,7 +48992,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>201</v>
@@ -49228,7 +49106,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>202</v>
@@ -49344,7 +49222,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>203</v>
@@ -49458,7 +49336,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>209</v>
@@ -49572,7 +49450,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>214</v>
@@ -49684,7 +49562,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>218</v>
@@ -49796,7 +49674,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>219</v>
@@ -49910,7 +49788,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>220</v>
@@ -50026,7 +49904,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>221</v>
@@ -50138,7 +50016,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>226</v>
@@ -50252,7 +50130,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>230</v>
@@ -50364,7 +50242,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>233</v>
@@ -50476,7 +50354,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>235</v>
@@ -50588,7 +50466,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>238</v>
@@ -50700,7 +50578,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>241</v>
@@ -50812,7 +50690,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>245</v>
@@ -50924,7 +50802,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>246</v>
@@ -51038,7 +50916,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>247</v>
@@ -51154,7 +51032,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>248</v>
@@ -51266,7 +51144,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>251</v>
@@ -51378,7 +51256,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>254</v>
@@ -51492,7 +51370,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>258</v>
@@ -51606,7 +51484,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>262</v>
@@ -51720,14 +51598,12 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C433" t="s" s="2">
-        <v>736</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="C433" s="2"/>
       <c r="D433" t="s" s="2">
         <v>77</v>
       </c>
@@ -51748,16 +51624,20 @@
         <v>88</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>145</v>
+        <v>732</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N433" s="2"/>
-      <c r="O433" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="N433" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="O433" t="s" s="2">
+        <v>736</v>
+      </c>
       <c r="P433" t="s" s="2">
         <v>77</v>
       </c>
@@ -51805,19 +51685,19 @@
         <v>77</v>
       </c>
       <c r="AF433" t="s" s="2">
-        <v>175</v>
+        <v>731</v>
       </c>
       <c r="AG433" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH433" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI433" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ433" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AK433" t="s" s="2">
         <v>77</v>
@@ -51829,3639 +51709,11 @@
         <v>77</v>
       </c>
       <c r="AN433" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="434" hidden="true">
-      <c r="A434" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="B434" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C434" s="2"/>
-      <c r="D434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E434" s="2"/>
-      <c r="F434" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G434" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K434" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L434" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M434" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N434" s="2"/>
-      <c r="O434" s="2"/>
-      <c r="P434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q434" s="2"/>
-      <c r="R434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF434" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG434" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH434" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL434" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN434" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="435" hidden="true">
-      <c r="A435" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="B435" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C435" s="2"/>
-      <c r="D435" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E435" s="2"/>
-      <c r="F435" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G435" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K435" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L435" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M435" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N435" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O435" s="2"/>
-      <c r="P435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q435" s="2"/>
-      <c r="R435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF435" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG435" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH435" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ435" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL435" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM435" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN435" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="436" hidden="true">
-      <c r="A436" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="B436" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C436" s="2"/>
-      <c r="D436" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E436" s="2"/>
-      <c r="F436" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G436" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I436" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J436" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K436" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L436" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M436" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N436" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O436" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q436" s="2"/>
-      <c r="R436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF436" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG436" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH436" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ436" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL436" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM436" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN436" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="437" hidden="true">
-      <c r="A437" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="B437" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C437" s="2"/>
-      <c r="D437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E437" s="2"/>
-      <c r="F437" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G437" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J437" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K437" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L437" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M437" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N437" s="2"/>
-      <c r="O437" s="2"/>
-      <c r="P437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q437" s="2"/>
-      <c r="R437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF437" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AG437" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH437" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ437" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM437" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN437" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="438" hidden="true">
-      <c r="A438" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="B438" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C438" s="2"/>
-      <c r="D438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E438" s="2"/>
-      <c r="F438" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G438" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J438" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K438" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L438" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M438" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N438" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O438" s="2"/>
-      <c r="P438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q438" s="2"/>
-      <c r="R438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF438" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AG438" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH438" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ438" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM438" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN438" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="439" hidden="true">
-      <c r="A439" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="B439" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C439" s="2"/>
-      <c r="D439" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="E439" s="2"/>
-      <c r="F439" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G439" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K439" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="L439" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M439" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N439" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="O439" s="2"/>
-      <c r="P439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q439" s="2"/>
-      <c r="R439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF439" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG439" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH439" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ439" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AK439" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AL439" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AM439" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN439" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="440" hidden="true">
-      <c r="A440" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="B440" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C440" s="2"/>
-      <c r="D440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E440" s="2"/>
-      <c r="F440" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G440" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J440" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K440" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L440" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M440" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N440" s="2"/>
-      <c r="O440" s="2"/>
-      <c r="P440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q440" s="2"/>
-      <c r="R440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF440" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AG440" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH440" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI440" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AJ440" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM440" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN440" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="441" hidden="true">
-      <c r="A441" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="B441" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C441" s="2"/>
-      <c r="D441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E441" s="2"/>
-      <c r="F441" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G441" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K441" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L441" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M441" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N441" s="2"/>
-      <c r="O441" s="2"/>
-      <c r="P441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q441" s="2"/>
-      <c r="R441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF441" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG441" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH441" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL441" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM441" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN441" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="442" hidden="true">
-      <c r="A442" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="B442" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C442" s="2"/>
-      <c r="D442" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E442" s="2"/>
-      <c r="F442" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G442" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K442" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L442" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M442" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N442" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O442" s="2"/>
-      <c r="P442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q442" s="2"/>
-      <c r="R442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF442" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG442" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH442" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ442" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL442" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM442" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN442" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="443" hidden="true">
-      <c r="A443" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="B443" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C443" s="2"/>
-      <c r="D443" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E443" s="2"/>
-      <c r="F443" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G443" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I443" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J443" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K443" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L443" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M443" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N443" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O443" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q443" s="2"/>
-      <c r="R443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF443" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG443" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH443" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ443" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL443" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM443" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN443" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="444" hidden="true">
-      <c r="A444" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="B444" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C444" s="2"/>
-      <c r="D444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E444" s="2"/>
-      <c r="F444" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G444" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J444" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K444" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L444" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M444" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N444" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O444" s="2"/>
-      <c r="P444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q444" s="2"/>
-      <c r="R444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X444" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y444" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z444" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AA444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF444" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG444" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH444" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ444" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM444" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN444" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="445" hidden="true">
-      <c r="A445" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="B445" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C445" s="2"/>
-      <c r="D445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E445" s="2"/>
-      <c r="F445" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G445" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J445" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K445" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L445" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M445" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N445" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O445" s="2"/>
-      <c r="P445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q445" s="2"/>
-      <c r="R445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF445" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG445" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH445" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ445" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM445" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN445" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="446" hidden="true">
-      <c r="A446" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="B446" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C446" s="2"/>
-      <c r="D446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E446" s="2"/>
-      <c r="F446" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G446" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J446" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K446" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L446" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M446" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N446" s="2"/>
-      <c r="O446" s="2"/>
-      <c r="P446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q446" s="2"/>
-      <c r="R446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF446" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AG446" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH446" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI446" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AJ446" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM446" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN446" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="447" hidden="true">
-      <c r="A447" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="B447" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C447" s="2"/>
-      <c r="D447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E447" s="2"/>
-      <c r="F447" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G447" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K447" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L447" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M447" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N447" s="2"/>
-      <c r="O447" s="2"/>
-      <c r="P447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q447" s="2"/>
-      <c r="R447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF447" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG447" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH447" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL447" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM447" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN447" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="448" hidden="true">
-      <c r="A448" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="B448" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C448" s="2"/>
-      <c r="D448" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E448" s="2"/>
-      <c r="F448" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G448" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K448" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L448" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M448" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N448" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O448" s="2"/>
-      <c r="P448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q448" s="2"/>
-      <c r="R448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF448" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG448" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH448" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ448" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL448" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM448" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN448" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="449" hidden="true">
-      <c r="A449" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="B449" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C449" s="2"/>
-      <c r="D449" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E449" s="2"/>
-      <c r="F449" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G449" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I449" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J449" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K449" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L449" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M449" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N449" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O449" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q449" s="2"/>
-      <c r="R449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF449" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG449" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH449" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ449" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL449" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM449" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN449" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="450" hidden="true">
-      <c r="A450" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="B450" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C450" s="2"/>
-      <c r="D450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E450" s="2"/>
-      <c r="F450" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G450" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J450" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K450" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L450" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M450" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N450" s="2"/>
-      <c r="O450" s="2"/>
-      <c r="P450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q450" s="2"/>
-      <c r="R450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X450" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y450" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Z450" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AA450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF450" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG450" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH450" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ450" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM450" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN450" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="451" hidden="true">
-      <c r="A451" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="B451" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C451" s="2"/>
-      <c r="D451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E451" s="2"/>
-      <c r="F451" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G451" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J451" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K451" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L451" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M451" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N451" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O451" s="2"/>
-      <c r="P451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q451" s="2"/>
-      <c r="R451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF451" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AG451" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH451" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ451" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM451" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN451" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="452" hidden="true">
-      <c r="A452" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="B452" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C452" s="2"/>
-      <c r="D452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E452" s="2"/>
-      <c r="F452" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G452" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J452" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K452" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L452" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M452" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N452" s="2"/>
-      <c r="O452" s="2"/>
-      <c r="P452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q452" s="2"/>
-      <c r="R452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF452" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AG452" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH452" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ452" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM452" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN452" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="453" hidden="true">
-      <c r="A453" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="B453" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C453" s="2"/>
-      <c r="D453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E453" s="2"/>
-      <c r="F453" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G453" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J453" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K453" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L453" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M453" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N453" s="2"/>
-      <c r="O453" s="2"/>
-      <c r="P453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q453" s="2"/>
-      <c r="R453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF453" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG453" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH453" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ453" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM453" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN453" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="454" hidden="true">
-      <c r="A454" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="B454" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C454" s="2"/>
-      <c r="D454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E454" s="2"/>
-      <c r="F454" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G454" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J454" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K454" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L454" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M454" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N454" s="2"/>
-      <c r="O454" s="2"/>
-      <c r="P454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q454" s="2"/>
-      <c r="R454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF454" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG454" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH454" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ454" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM454" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN454" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="455" hidden="true">
-      <c r="A455" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="B455" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C455" s="2"/>
-      <c r="D455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E455" s="2"/>
-      <c r="F455" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G455" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J455" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K455" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L455" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M455" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N455" s="2"/>
-      <c r="O455" s="2"/>
-      <c r="P455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q455" s="2"/>
-      <c r="R455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF455" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG455" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH455" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ455" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM455" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN455" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="456" hidden="true">
-      <c r="A456" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="B456" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C456" s="2"/>
-      <c r="D456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E456" s="2"/>
-      <c r="F456" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G456" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J456" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K456" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L456" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M456" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N456" s="2"/>
-      <c r="O456" s="2"/>
-      <c r="P456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q456" s="2"/>
-      <c r="R456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF456" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG456" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH456" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI456" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AJ456" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM456" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN456" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="457" hidden="true">
-      <c r="A457" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="B457" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C457" s="2"/>
-      <c r="D457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E457" s="2"/>
-      <c r="F457" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G457" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K457" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L457" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M457" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N457" s="2"/>
-      <c r="O457" s="2"/>
-      <c r="P457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q457" s="2"/>
-      <c r="R457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF457" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG457" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH457" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL457" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM457" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN457" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="458" hidden="true">
-      <c r="A458" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="B458" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C458" s="2"/>
-      <c r="D458" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E458" s="2"/>
-      <c r="F458" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G458" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K458" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L458" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M458" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N458" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O458" s="2"/>
-      <c r="P458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q458" s="2"/>
-      <c r="R458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF458" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG458" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH458" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ458" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL458" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM458" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN458" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="459" hidden="true">
-      <c r="A459" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="B459" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C459" s="2"/>
-      <c r="D459" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E459" s="2"/>
-      <c r="F459" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G459" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I459" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J459" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K459" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L459" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M459" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N459" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O459" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q459" s="2"/>
-      <c r="R459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF459" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG459" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH459" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ459" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL459" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM459" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN459" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="460" hidden="true">
-      <c r="A460" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="B460" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C460" s="2"/>
-      <c r="D460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E460" s="2"/>
-      <c r="F460" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G460" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J460" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K460" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L460" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M460" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N460" s="2"/>
-      <c r="O460" s="2"/>
-      <c r="P460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q460" s="2"/>
-      <c r="R460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF460" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG460" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH460" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ460" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM460" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN460" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="461" hidden="true">
-      <c r="A461" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="B461" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C461" s="2"/>
-      <c r="D461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E461" s="2"/>
-      <c r="F461" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G461" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J461" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K461" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L461" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M461" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N461" s="2"/>
-      <c r="O461" s="2"/>
-      <c r="P461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q461" s="2"/>
-      <c r="R461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF461" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG461" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH461" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ461" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM461" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN461" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="462" hidden="true">
-      <c r="A462" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="B462" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C462" s="2"/>
-      <c r="D462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E462" s="2"/>
-      <c r="F462" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G462" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J462" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K462" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L462" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M462" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N462" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O462" s="2"/>
-      <c r="P462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q462" s="2"/>
-      <c r="R462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF462" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AG462" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH462" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ462" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM462" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN462" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="463" hidden="true">
-      <c r="A463" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="B463" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C463" s="2"/>
-      <c r="D463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E463" s="2"/>
-      <c r="F463" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G463" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J463" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K463" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L463" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M463" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N463" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O463" s="2"/>
-      <c r="P463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q463" s="2"/>
-      <c r="R463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF463" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG463" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH463" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ463" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM463" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN463" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="464" hidden="true">
-      <c r="A464" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="B464" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C464" s="2"/>
-      <c r="D464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E464" s="2"/>
-      <c r="F464" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G464" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J464" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K464" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L464" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M464" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N464" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O464" s="2"/>
-      <c r="P464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q464" s="2"/>
-      <c r="R464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF464" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AG464" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH464" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM464" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN464" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="465" hidden="true">
-      <c r="A465" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="B465" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="C465" s="2"/>
-      <c r="D465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E465" s="2"/>
-      <c r="F465" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G465" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J465" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K465" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="L465" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="M465" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="N465" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="O465" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="P465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q465" s="2"/>
-      <c r="R465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF465" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="AG465" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH465" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ465" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN465" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN465">
+  <autoFilter ref="A1:AN433">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -55471,7 +51723,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI464">
+  <conditionalFormatting sqref="A2:AI432">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8797,13 +8797,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -12421,13 +12421,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -16045,13 +16045,13 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>77</v>
@@ -19669,13 +19669,13 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>77</v>
@@ -23293,13 +23293,13 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>77</v>
@@ -26917,13 +26917,13 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>77</v>
@@ -30541,13 +30541,13 @@
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G247" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H247" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I247" t="s" s="2">
         <v>77</v>
@@ -34165,13 +34165,13 @@
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G279" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I279" t="s" s="2">
         <v>77</v>
@@ -37791,13 +37791,13 @@
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G311" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H311" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I311" t="s" s="2">
         <v>77</v>
@@ -41417,13 +41417,13 @@
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G343" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H343" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I343" t="s" s="2">
         <v>77</v>
@@ -45041,13 +45041,13 @@
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G375" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H375" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I375" t="s" s="2">
         <v>77</v>
@@ -48665,13 +48665,13 @@
       </c>
       <c r="E407" s="2"/>
       <c r="F407" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G407" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H407" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I407" t="s" s="2">
         <v>77</v>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
